--- a/Accurate_Results.xlsx
+++ b/Accurate_Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s3081701\Dropbox\Diplomarbeit\Implementation Results\Accurate Adders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s3081701\Documents\Diplomarbeit\Git-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="kintex_RESULT_ALL" sheetId="1" r:id="rId1"/>
@@ -646,3638 +646,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Performance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard RCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.5350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4760000000000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCA with LUTs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$6:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$6:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9939999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4450000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCA with 2 Output LUTs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$10:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.7759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1980000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.298</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Full KSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$14:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$14:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4580000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.401999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KSA-RCA Combination</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$18:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$18:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.2249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2939999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.085000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signed Digit Unconverted</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$22:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$22:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signed Digit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$26:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$26:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.1589999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4829999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6630000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fast CCA 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$34:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.4669999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6710000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fast CCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$30:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$C$30:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1790000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0869999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3884-44AB-AC52-D364363CF828}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="336191576"/>
-        <c:axId val="336189936"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="336191576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bit Width</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="336189936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="336189936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Delay in ns</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="336191576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35749797479018824"/>
-          <c:y val="0.62287741280296371"/>
-          <c:w val="0.57274893879005861"/>
-          <c:h val="0.19850043267752293"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Area Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard RCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCA with LUTs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$6:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$6:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCA with 2 Output LUTs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$10:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Full KSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$14:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$14:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KSA-RCA Combination</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$18:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$18:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signed Digit Unconverted</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$22:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$22:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signed Digit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$26:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$26:$D$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fast CCA 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fast CCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$30:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$D$30:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8F4A-4AE6-863F-D8C41CD8D686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="336191576"/>
-        <c:axId val="336189936"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="336191576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bit Width</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="336189936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="336189936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Area in LUT</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="336191576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12380500350902814"/>
-          <c:y val="0.1521537166344773"/>
-          <c:w val="0.55308822873184116"/>
-          <c:h val="0.19850029163021293"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Power</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Consumption</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standard RCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$2:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>210.08799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>453.90199999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>684.37199999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1770.885</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCA with LUTs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$6:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$6:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>215.29300000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>465.16800000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>688.43100000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1776.0840000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RCA with 2 Output LUTs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$10:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>228.006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>487.49099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>712.19600000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1683.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Full KSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$14:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$14:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>501.37799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1312.704</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2554.5059999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5591.665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KSA-RCA Combination</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$18:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$18:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>239.791</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>520.79399999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>737.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1679.2429999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signed Digit Unconverted</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$22:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$22:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>147.404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>291.28800000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>904.72500000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900.02099999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signed Digit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$26:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$26:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>376.51600000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>739.90099999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2121.6030000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2604.913</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fast CCA 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$34:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>246.99199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>541.00400000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1435.44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2033.6559999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>kintex_RESULT_ALL!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fast CCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$B$30:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kintex_RESULT_ALL!$F$30:$F$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>214.99299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>507.47300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>779.37300000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1879.066</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-BFC4-41E7-95D0-4AFC44A63273}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="336191576"/>
-        <c:axId val="336189936"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="336191576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Bit Width</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="336189936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="336189936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Power in uW</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="336191576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13204817713087255"/>
-          <c:y val="0.1521537166344773"/>
-          <c:w val="0.55308822873184116"/>
-          <c:h val="0.19850029163021293"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -5314,7 +1682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6342,7 +2710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7489,126 +3857,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9157,1654 +5405,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11170,7 +5771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -12449,7 +7050,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -12474,7 +7074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
